--- a/va_facility_data_2025-02-20/Berks County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Berks%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Berks County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Berks%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf739ac4a6bfc474cbd49986deb03a3ba"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8069de1640dc442b9c6e8d66ca5e781b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R61c5115387854b7bb0dd8420ac84c45e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9aebf184535d4d4f9181cf84ee491e7d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R044688f1e3934cf9a518578020935d09"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra3859e6b7cd6481cb8cff7741e72071d"/>
   </x:sheets>
 </x:workbook>
 </file>
